--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3806.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3806.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.752679422822226</v>
+        <v>3.418174028396606</v>
       </c>
       <c r="B1">
-        <v>2.050024886990538</v>
+        <v>6.760646820068359</v>
       </c>
       <c r="C1">
-        <v>2.637926152706545</v>
+        <v>5.919130802154541</v>
       </c>
       <c r="D1">
-        <v>4.860520115778703</v>
+        <v>2.275228977203369</v>
       </c>
       <c r="E1">
-        <v>0.7848977737640392</v>
+        <v>1.431994199752808</v>
       </c>
     </row>
   </sheetData>
